--- a/template.xlsx
+++ b/template.xlsx
@@ -5,15 +5,28 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="StudentDetails" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Maths" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Geography" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Physics" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="English" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Topics" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Topics" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Mathematics" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Geography" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Physics" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="English" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="History&amp;Pol.Ed" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Biology" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Chemistry" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Entrepreneurship" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Kiswahili" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Literature" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Art" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Agriculture" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="PhysicalEducation" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="ICT" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="CRE" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Luganda" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="IRE" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="101">
   <si>
     <t xml:space="preserve">StudID</t>
   </si>
@@ -39,22 +52,64 @@
     <t xml:space="preserve">Gender</t>
   </si>
   <si>
-    <t xml:space="preserve">Skill1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skill2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skill3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value3</t>
+    <t xml:space="preserve">Mathematical Computation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creativity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commitment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical Thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-directed learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem solving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICT proficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logical thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leadership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kindness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnecessarily talkative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generally stubborn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Often sleepy during class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helpful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disrupts normal order during class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tends to be inactive</t>
   </si>
   <si>
     <t xml:space="preserve">001</t>
@@ -117,6 +172,165 @@
     <t xml:space="preserve">Asiimwe</t>
   </si>
   <si>
+    <t xml:space="preserve">Topic_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematics S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematics S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematics S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dgd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematics S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gsdg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rdhfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physics S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geography S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geography S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rgerg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drhs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geography S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wgw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geography S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Topic 1</t>
   </si>
   <si>
@@ -127,165 +341,6 @@
   </si>
   <si>
     <t xml:space="preserve">Topic 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maths S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maths s2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">egg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maths S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dgd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maths S4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gsdg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">English S4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physics S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdhfs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physics S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physics S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rgs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physics S4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geography S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geography S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rgerg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drhs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geography S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rhs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wgw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geography S4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dg</t>
   </si>
 </sst>
 </file>
@@ -386,13 +441,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z12" activeCellId="0" sqref="Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="22.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="29.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="17.83"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -425,19 +496,61 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -457,19 +570,65 @@
       <c r="J2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
@@ -489,19 +648,65 @@
       <c r="J3" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -521,19 +726,65 @@
       <c r="J4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>0</v>
@@ -553,19 +804,65 @@
       <c r="J5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>1</v>
@@ -585,19 +882,65 @@
       <c r="J6" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>0</v>
@@ -617,19 +960,65 @@
       <c r="J7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="K7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0</v>
@@ -649,11 +1038,497 @@
       <c r="J8" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -666,97 +1541,286 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.6"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>34</v>
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -778,10 +1842,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -791,87 +1855,81 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>234</v>
-      </c>
       <c r="F2" s="1" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +1954,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -906,24 +1964,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>24</v>
@@ -931,22 +1989,25 @@
       <c r="D2" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="E2" s="1" t="n">
+        <v>234</v>
+      </c>
       <c r="F2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>322</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>34</v>
@@ -954,13 +2015,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>42</v>
@@ -974,22 +2032,19 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>234</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1008,13 +2063,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1024,24 +2079,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>24</v>
@@ -1049,26 +2104,20 @@
       <c r="D2" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>234</v>
-      </c>
       <c r="F2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>34</v>
-      </c>
       <c r="E3" s="1" t="n">
         <v>322</v>
       </c>
@@ -1078,10 +2127,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>23</v>
@@ -1098,33 +2147,22 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1143,286 +2181,255 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.6"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="StudentDetails" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="153">
   <si>
     <t xml:space="preserve">StudID</t>
   </si>
@@ -682,10 +682,10 @@
   <dimension ref="A1:Z150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
@@ -693,22 +693,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="9.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="25.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="35.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="20.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5028,10 +5028,10 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -5054,36 +5054,82 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
@@ -5464,10 +5510,10 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -5490,36 +5536,82 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
@@ -5900,10 +5992,10 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -5926,52 +6018,120 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>2.3</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
@@ -6336,10 +6496,10 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -6362,52 +6522,120 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>2.3</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
@@ -6772,10 +7000,10 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -6798,52 +7026,120 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>2.3</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
@@ -7208,10 +7504,10 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -7234,52 +7530,120 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>2.3</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
@@ -7644,10 +8008,10 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -7670,52 +8034,120 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="n">
+        <v>2.3</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
@@ -8080,10 +8512,10 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -8106,36 +8538,82 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
@@ -8516,10 +8994,10 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -8542,36 +9020,82 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
@@ -8951,11 +9475,11 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -8978,36 +9502,82 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
@@ -9387,7 +9957,7 @@
   </sheetPr>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -9397,7 +9967,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="31.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="31.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="33.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="34.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="34.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="9" width="11.71"/>
   </cols>
   <sheetData>
@@ -10548,13 +11118,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
@@ -10584,10 +11154,16 @@
         <v>25</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10598,16 +11174,16 @@
         <v>29</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>32</v>
+        <v>2.6</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10617,11 +11193,17 @@
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="C4" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D4" s="6" t="n">
-        <v>34</v>
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>2.3</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10631,15 +11213,20 @@
       <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>23</v>
-      </c>
       <c r="D5" s="6" t="n">
-        <v>42</v>
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2.2</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10657,13 +11244,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
@@ -10693,13 +11280,13 @@
         <v>34</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>2</v>
@@ -10713,13 +11300,16 @@
         <v>37</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>2.6</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>34</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10729,14 +11319,17 @@
       <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="C4" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="D4" s="6" t="n">
-        <v>42</v>
+        <v>2.1</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>23</v>
+        <v>2.3</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10747,14 +11340,19 @@
         <v>43</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>32</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>2</v>
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2.2</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>12</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10772,13 +11370,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
@@ -10808,10 +11406,13 @@
         <v>34</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>2</v>
@@ -10825,13 +11426,16 @@
         <v>37</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>2.6</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>34</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10842,16 +11446,16 @@
         <v>40</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>42</v>
+        <v>2.1</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>23</v>
+        <v>2.3</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10861,18 +11465,20 @@
       <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>234</v>
-      </c>
       <c r="D5" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>63</v>
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2.2</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>22</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -10890,13 +11496,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
@@ -10926,13 +11532,13 @@
         <v>29</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>2</v>
@@ -10946,16 +11552,16 @@
         <v>32</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>34</v>
+        <v>2.6</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>34</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10966,16 +11572,16 @@
         <v>34</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>42</v>
+        <v>2.1</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>23</v>
+        <v>2.3</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10986,10 +11592,13 @@
         <v>37</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>34</v>
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2.2</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11000,13 +11609,33 @@
         <v>40</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23</v>
+        <v>2.3</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4</v>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -11028,10 +11657,10 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -11054,36 +11683,82 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
@@ -11463,15 +12138,15 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.58"/>
   </cols>
   <sheetData>
@@ -11496,36 +12171,82 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
@@ -11906,10 +12627,10 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -11932,36 +12653,82 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -776,7 +776,7 @@
   <dimension ref="A1:Z150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4773,10 +4773,10 @@
   <sheetProtection password="CC3E" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>$D$13:$D$16</formula1>
+      <formula1>"S.1,S.2,S.3,S.4"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>$D$4:$D$5</formula1>
+      <formula1>"Male, Female"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="CC3E" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StudentDetails" sheetId="1" r:id="rId1"/>
@@ -172,18 +172,6 @@
     <t>Geography S4</t>
   </si>
   <si>
-    <t>History S1</t>
-  </si>
-  <si>
-    <t>History S2</t>
-  </si>
-  <si>
-    <t>History S3</t>
-  </si>
-  <si>
-    <t>History S4</t>
-  </si>
-  <si>
     <t>Biology S1</t>
   </si>
   <si>
@@ -338,6 +326,18 @@
   </si>
   <si>
     <t>Topic 4</t>
+  </si>
+  <si>
+    <t>History&amp;Pol.Ed S1</t>
+  </si>
+  <si>
+    <t>History&amp;Pol.Ed S2</t>
+  </si>
+  <si>
+    <t>History&amp;Pol.Ed S3</t>
+  </si>
+  <si>
+    <t>History&amp;Pol.Ed S4</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -6113,16 +6113,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -8348,16 +8348,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -10583,16 +10583,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -12818,16 +12818,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -15053,16 +15053,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -17288,16 +17288,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -19523,16 +19523,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -21758,16 +21758,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -23993,16 +23993,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -26228,16 +26228,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -28444,8 +28444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29639,7 +29639,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -29648,7 +29648,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -29657,7 +29657,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -29666,7 +29666,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -29675,7 +29675,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -29684,7 +29684,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -29693,7 +29693,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -29702,7 +29702,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -29711,7 +29711,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -29720,7 +29720,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -29729,7 +29729,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -29738,7 +29738,7 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -29747,7 +29747,7 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -29756,7 +29756,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -29765,7 +29765,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -29774,7 +29774,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -29783,7 +29783,7 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -29792,7 +29792,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -29801,7 +29801,7 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -29810,7 +29810,7 @@
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -29819,7 +29819,7 @@
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -29828,7 +29828,7 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -29837,7 +29837,7 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -29846,7 +29846,7 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -29855,7 +29855,7 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -29864,7 +29864,7 @@
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -29873,7 +29873,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -29882,7 +29882,7 @@
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -29891,7 +29891,7 @@
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -29900,7 +29900,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -29909,7 +29909,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -29918,7 +29918,7 @@
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -29927,7 +29927,7 @@
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -29936,7 +29936,7 @@
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -29945,7 +29945,7 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -29954,7 +29954,7 @@
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -29963,7 +29963,7 @@
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -29972,7 +29972,7 @@
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -29981,7 +29981,7 @@
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -29990,7 +29990,7 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -29999,7 +29999,7 @@
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -30008,7 +30008,7 @@
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -30017,7 +30017,7 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -30026,7 +30026,7 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -30035,7 +30035,7 @@
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -30044,7 +30044,7 @@
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -30053,7 +30053,7 @@
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -30062,7 +30062,7 @@
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -30071,7 +30071,7 @@
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -30080,7 +30080,7 @@
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -30089,7 +30089,7 @@
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -30098,7 +30098,7 @@
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -30139,16 +30139,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -32374,16 +32374,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -34609,16 +34609,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -36844,16 +36844,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -39079,16 +39079,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -41317,16 +41317,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -43552,16 +43552,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
